--- a/Data/eggs_connection.xlsx
+++ b/Data/eggs_connection.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,9 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
